--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H2">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I2">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J2">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>0.4465423975604444</v>
+        <v>8.602253163968889</v>
       </c>
       <c r="R2">
-        <v>4.018881578044</v>
+        <v>77.42027847572</v>
       </c>
       <c r="S2">
-        <v>8.307257417351124E-07</v>
+        <v>8.697126881965153E-06</v>
       </c>
       <c r="T2">
-        <v>8.307257417351124E-07</v>
+        <v>8.697126881965148E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H3">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I3">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J3">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>7.150950151866223</v>
+        <v>32.95089430169556</v>
       </c>
       <c r="R3">
-        <v>64.35855136679599</v>
+        <v>296.55804871526</v>
       </c>
       <c r="S3">
-        <v>1.330327960228183E-05</v>
+        <v>3.331430767655389E-05</v>
       </c>
       <c r="T3">
-        <v>1.330327960228183E-05</v>
+        <v>3.331430767655388E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H4">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I4">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J4">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>9.716492071165332</v>
+        <v>89.82001087142667</v>
       </c>
       <c r="R4">
-        <v>87.44842864048798</v>
+        <v>808.38009784284</v>
       </c>
       <c r="S4">
-        <v>1.807608891558737E-05</v>
+        <v>9.081063021491799E-05</v>
       </c>
       <c r="T4">
-        <v>1.807608891558737E-05</v>
+        <v>9.081063021491796E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H5">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I5">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J5">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>2.370880766678667</v>
+        <v>22.36677412518445</v>
       </c>
       <c r="R5">
-        <v>21.337926900108</v>
+        <v>201.30096712666</v>
       </c>
       <c r="S5">
-        <v>4.410671179768652E-06</v>
+        <v>2.261345589336666E-05</v>
       </c>
       <c r="T5">
-        <v>4.410671179768651E-06</v>
+        <v>2.261345589336665E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H6">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I6">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J6">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>28.43613571405644</v>
+        <v>147.6397511371667</v>
       </c>
       <c r="R6">
-        <v>255.925221426508</v>
+        <v>1328.7577602345</v>
       </c>
       <c r="S6">
-        <v>5.290120280223173E-05</v>
+        <v>0.0001492680608192272</v>
       </c>
       <c r="T6">
-        <v>5.290120280223173E-05</v>
+        <v>0.0001492680608192271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H7">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I7">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J7">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>6.320392377530221</v>
+        <v>44.69938884524667</v>
       </c>
       <c r="R7">
-        <v>56.88353139777199</v>
+        <v>402.29449960722</v>
       </c>
       <c r="S7">
-        <v>1.175815034488417E-05</v>
+        <v>4.519237563964515E-05</v>
       </c>
       <c r="T7">
-        <v>1.175815034488417E-05</v>
+        <v>4.519237563964514E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>14.345437</v>
       </c>
       <c r="I8">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J8">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>49.99411413255321</v>
+        <v>209.0089780525158</v>
       </c>
       <c r="R8">
-        <v>449.947027192979</v>
+        <v>1881.080802472642</v>
       </c>
       <c r="S8">
-        <v>9.300661655432933E-05</v>
+        <v>0.0002113141251418271</v>
       </c>
       <c r="T8">
-        <v>9.300661655432933E-05</v>
+        <v>0.000211314125141827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>14.345437</v>
       </c>
       <c r="I9">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J9">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>800.6080049771901</v>
@@ -1013,10 +1013,10 @@
         <v>7205.47204479471</v>
       </c>
       <c r="S9">
-        <v>0.001489412164236249</v>
+        <v>0.0008094378611371909</v>
       </c>
       <c r="T9">
-        <v>0.001489412164236249</v>
+        <v>0.0008094378611371907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>14.345437</v>
       </c>
       <c r="I10">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J10">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>1087.841638840428</v>
+        <v>2182.357147954619</v>
       </c>
       <c r="R10">
-        <v>9790.574749563855</v>
+        <v>19641.21433159157</v>
       </c>
       <c r="S10">
-        <v>0.002023767636070279</v>
+        <v>0.002206426229935305</v>
       </c>
       <c r="T10">
-        <v>0.002023767636070279</v>
+        <v>0.002206426229935304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>14.345437</v>
       </c>
       <c r="I11">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J11">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>265.4397080581003</v>
+        <v>543.4455965347779</v>
       </c>
       <c r="R11">
-        <v>2388.957372522903</v>
+        <v>4891.010368813001</v>
       </c>
       <c r="S11">
-        <v>0.0004938111130481602</v>
+        <v>0.0005494392244005455</v>
       </c>
       <c r="T11">
-        <v>0.0004938111130481601</v>
+        <v>0.0005494392244005454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>14.345437</v>
       </c>
       <c r="I12">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J12">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>3183.660548570589</v>
+        <v>3587.203598512758</v>
       </c>
       <c r="R12">
-        <v>28652.9449371353</v>
+        <v>32284.83238661482</v>
       </c>
       <c r="S12">
-        <v>0.005922727125336674</v>
+        <v>0.003626766645090599</v>
       </c>
       <c r="T12">
-        <v>0.005922727125336674</v>
+        <v>0.003626766645090598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>14.345437</v>
       </c>
       <c r="I13">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J13">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>707.6201937622139</v>
+        <v>1086.061221872546</v>
       </c>
       <c r="R13">
-        <v>6368.581743859926</v>
+        <v>9774.550996852917</v>
       </c>
       <c r="S13">
-        <v>0.001316422166274343</v>
+        <v>0.001098039323903093</v>
       </c>
       <c r="T13">
-        <v>0.001316422166274343</v>
+        <v>0.001098039323903093</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H14">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I14">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J14">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>49.80397500518067</v>
+        <v>544.6064448694416</v>
       </c>
       <c r="R14">
-        <v>448.235775046626</v>
+        <v>4901.458003824974</v>
       </c>
       <c r="S14">
-        <v>9.265289097646178E-05</v>
+        <v>0.0005506128756596803</v>
       </c>
       <c r="T14">
-        <v>9.265289097646179E-05</v>
+        <v>0.0005506128756596801</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H15">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I15">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J15">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>797.5631083913595</v>
+        <v>2086.112679882536</v>
       </c>
       <c r="R15">
-        <v>7178.067975522235</v>
+        <v>18775.01411894282</v>
       </c>
       <c r="S15">
-        <v>0.001483747586833095</v>
+        <v>0.002109120287578691</v>
       </c>
       <c r="T15">
-        <v>0.001483747586833095</v>
+        <v>0.00210912028757869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H16">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I16">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J16">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>1083.704326608428</v>
+        <v>5686.481886363509</v>
       </c>
       <c r="R16">
-        <v>9753.338939475851</v>
+        <v>51178.33697727158</v>
       </c>
       <c r="S16">
-        <v>0.002016070781770451</v>
+        <v>0.005749197743313342</v>
       </c>
       <c r="T16">
-        <v>0.002016070781770451</v>
+        <v>0.00574919774331334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H17">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I17">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J17">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>264.430179729898</v>
+        <v>1416.034741983161</v>
       </c>
       <c r="R17">
-        <v>2379.871617569082</v>
+        <v>12744.31267784845</v>
       </c>
       <c r="S17">
-        <v>0.0004919330356834348</v>
+        <v>0.001431652101554318</v>
       </c>
       <c r="T17">
-        <v>0.0004919330356834348</v>
+        <v>0.001431652101554317</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H18">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I18">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J18">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>3171.552354454965</v>
+        <v>9347.034835594643</v>
       </c>
       <c r="R18">
-        <v>28543.97119009469</v>
+        <v>84123.31352035177</v>
       </c>
       <c r="S18">
-        <v>0.005900201630349575</v>
+        <v>0.00945012270457388</v>
       </c>
       <c r="T18">
-        <v>0.005900201630349576</v>
+        <v>0.009450122704573877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H19">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I19">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J19">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>704.9289512332153</v>
+        <v>2829.906860775878</v>
       </c>
       <c r="R19">
-        <v>6344.360561098938</v>
+        <v>25469.1617469829</v>
       </c>
       <c r="S19">
-        <v>0.001311415509665014</v>
+        <v>0.002861117728480807</v>
       </c>
       <c r="T19">
-        <v>0.001311415509665014</v>
+        <v>0.002861117728480806</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H20">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I20">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J20">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>5.988690736052222</v>
+        <v>13.92384282580222</v>
       </c>
       <c r="R20">
-        <v>53.89821662447</v>
+        <v>125.31458543222</v>
       </c>
       <c r="S20">
-        <v>1.114106875608774E-05</v>
+        <v>1.407740802697679E-05</v>
       </c>
       <c r="T20">
-        <v>1.114106875608774E-05</v>
+        <v>1.407740802697679E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H21">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I21">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J21">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>95.90316431858112</v>
+        <v>53.33522095677889</v>
       </c>
       <c r="R21">
-        <v>863.12847886723</v>
+        <v>480.01698861101</v>
       </c>
       <c r="S21">
-        <v>0.0001784135789760334</v>
+        <v>5.392345180930907E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001784135789760334</v>
+        <v>5.392345180930906E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H22">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I22">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J22">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>130.3102826773267</v>
+        <v>145.3851322609267</v>
       </c>
       <c r="R22">
-        <v>1172.79254409594</v>
+        <v>1308.46619034834</v>
       </c>
       <c r="S22">
-        <v>0.0002424229072630919</v>
+        <v>0.0001469885758908754</v>
       </c>
       <c r="T22">
-        <v>0.0002424229072630919</v>
+        <v>0.0001469885758908754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H23">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I23">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J23">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>31.79646940864334</v>
+        <v>36.20347384610111</v>
       </c>
       <c r="R23">
-        <v>286.16822467779</v>
+        <v>325.83126461491</v>
       </c>
       <c r="S23">
-        <v>5.915260404915438E-05</v>
+        <v>3.660275971954492E-05</v>
       </c>
       <c r="T23">
-        <v>5.915260404915436E-05</v>
+        <v>3.660275971954492E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H24">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I24">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J24">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>381.3640618455322</v>
+        <v>238.9737491434167</v>
       </c>
       <c r="R24">
-        <v>3432.27655660979</v>
+        <v>2150.76374229075</v>
       </c>
       <c r="S24">
-        <v>0.0007094711384149395</v>
+        <v>0.0002416093758394208</v>
       </c>
       <c r="T24">
-        <v>0.0007094711384149395</v>
+        <v>0.0002416093758394207</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H25">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I25">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J25">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>84.7643482149011</v>
+        <v>72.35165634249667</v>
       </c>
       <c r="R25">
-        <v>762.8791339341099</v>
+        <v>651.16490708247</v>
       </c>
       <c r="S25">
-        <v>0.0001576914676595418</v>
+        <v>7.31496182845088E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001576914676595418</v>
+        <v>7.314961828450878E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H26">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I26">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J26">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>4299.254513115442</v>
+        <v>23630.95216765802</v>
       </c>
       <c r="R26">
-        <v>38693.29061803898</v>
+        <v>212678.5695089221</v>
       </c>
       <c r="S26">
-        <v>0.007998123837350546</v>
+        <v>0.02389157647726659</v>
       </c>
       <c r="T26">
-        <v>0.007998123837350546</v>
+        <v>0.02389157647726659</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H27">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I27">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J27">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>68848.45623043645</v>
+        <v>90518.26216721874</v>
       </c>
       <c r="R27">
-        <v>619636.1060739281</v>
+        <v>814664.3595049686</v>
       </c>
       <c r="S27">
-        <v>0.1280823168904244</v>
+        <v>0.09151658248105642</v>
       </c>
       <c r="T27">
-        <v>0.1280823168904245</v>
+        <v>0.0915165824810564</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H28">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I28">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J28">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>93549.17386753501</v>
+        <v>246741.4455426138</v>
       </c>
       <c r="R28">
-        <v>841942.5648078151</v>
+        <v>2220673.009883524</v>
       </c>
       <c r="S28">
-        <v>0.1740343297173604</v>
+        <v>0.2494627416816825</v>
       </c>
       <c r="T28">
-        <v>0.1740343297173604</v>
+        <v>0.2494627416816824</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H29">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I29">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J29">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>22826.54433686136</v>
+        <v>61442.99167000849</v>
       </c>
       <c r="R29">
-        <v>205438.8990317522</v>
+        <v>552986.9250300764</v>
       </c>
       <c r="S29">
-        <v>0.04246539204134986</v>
+        <v>0.0621206426241752</v>
       </c>
       <c r="T29">
-        <v>0.04246539204134986</v>
+        <v>0.06212064262417519</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H30">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I30">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J30">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>273779.5682383595</v>
+        <v>405576.0543970822</v>
       </c>
       <c r="R30">
-        <v>2464016.114145236</v>
+        <v>3650184.48957374</v>
       </c>
       <c r="S30">
-        <v>0.5093261829991049</v>
+        <v>0.4100491276114437</v>
       </c>
       <c r="T30">
-        <v>0.509326182999105</v>
+        <v>0.4100491276114436</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H31">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I31">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J31">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>60851.94956225647</v>
+        <v>122792.1452195696</v>
       </c>
       <c r="R31">
-        <v>547667.5460603082</v>
+        <v>1105129.306976127</v>
       </c>
       <c r="S31">
-        <v>0.1132060051012076</v>
+        <v>0.1241464121930776</v>
       </c>
       <c r="T31">
-        <v>0.1132060051012076</v>
+        <v>0.1241464121930776</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H32">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I32">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J32">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>3.495919693597334</v>
+        <v>178.0808168302025</v>
       </c>
       <c r="R32">
-        <v>31.463277242376</v>
+        <v>1602.727351471822</v>
       </c>
       <c r="S32">
-        <v>6.5036388400654E-06</v>
+        <v>0.0001800448591426584</v>
       </c>
       <c r="T32">
-        <v>6.5036388400654E-06</v>
+        <v>0.0001800448591426584</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H33">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I33">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J33">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>55.98381609544267</v>
+        <v>682.137814440267</v>
       </c>
       <c r="R33">
-        <v>503.854344858984</v>
+        <v>6139.240329962402</v>
       </c>
       <c r="S33">
-        <v>0.0001041495665476053</v>
+        <v>0.0006896610701975916</v>
       </c>
       <c r="T33">
-        <v>0.0001041495665476053</v>
+        <v>0.0006896610701975914</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H34">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I34">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J34">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>76.06909482692799</v>
+        <v>1859.42224656656</v>
       </c>
       <c r="R34">
-        <v>684.6218534423519</v>
+        <v>16734.80021909904</v>
       </c>
       <c r="S34">
-        <v>0.0001415152414831215</v>
+        <v>0.001879929699497106</v>
       </c>
       <c r="T34">
-        <v>0.0001415152414831215</v>
+        <v>0.001879929699497105</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H35">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I35">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J35">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>18.561303044648</v>
+        <v>463.0290843744213</v>
       </c>
       <c r="R35">
-        <v>167.051727401832</v>
+        <v>4167.261759369791</v>
       </c>
       <c r="S35">
-        <v>3.453054474463029E-05</v>
+        <v>0.0004681358035022665</v>
       </c>
       <c r="T35">
-        <v>3.453054474463028E-05</v>
+        <v>0.0004681358035022664</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H36">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I36">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J36">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>222.6226387363813</v>
+        <v>3056.386155808509</v>
       </c>
       <c r="R36">
-        <v>2003.603748627432</v>
+        <v>27507.47540227658</v>
       </c>
       <c r="S36">
-        <v>0.0004141563213295439</v>
+        <v>0.003090094849647981</v>
       </c>
       <c r="T36">
-        <v>0.0004141563213295439</v>
+        <v>0.00309009484964798</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H37">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I37">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J37">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>49.48149224929866</v>
+        <v>925.3510127688165</v>
       </c>
       <c r="R37">
-        <v>445.3334302436879</v>
+        <v>8328.159114919348</v>
       </c>
       <c r="S37">
-        <v>9.205295975371467E-05</v>
+        <v>0.000935556651844949</v>
       </c>
       <c r="T37">
-        <v>9.205295975371467E-05</v>
+        <v>0.0009355566518449488</v>
       </c>
     </row>
   </sheetData>
